--- a/docs/LTA1_C/LTA1_C_06.08.24_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_06.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731791890.4721322</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731791894.0765884</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731791890.4721322.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731791894.0765884.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>280.03</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>279.27</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.7599999999999909</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731791895.6742911</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731791899.0266325</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731791895.6742911.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731791899.0266325.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>278.85</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>278.26</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.5900000000000318</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731791899.9763737</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731791899.9763737.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731791899.9763737.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>279.38</v>
       </c>
-      <c r="J5" t="n">
-        <v>279.38</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>279.69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.3100000000000023</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731791903.6326017</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731791906.8521693</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791903.6326017.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791906.8521693.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>129.02</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>128.45</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.5700000000000216</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731791908.1671512</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731791908.4351676</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791908.1671512.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791908.4351676.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>129.4</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>129.01</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.3900000000000148</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731791908.7010546</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731791909.3754117</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791908.7010546.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791909.3754117.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>129.37</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>128.92</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.4500000000000171</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731791909.9822435</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731791912.848254</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791909.9822435.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791912.848254.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>128.64</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>128.47</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.1699999999999875</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -895,95 +953,107 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731791914.267034</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731791914.267034.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731791914.267034.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>128.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>128.57</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.06999999999999318</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731791917.0335262</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731791918.927611</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731791917.0335262.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731791918.927611.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6482.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6447</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>35.5</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -991,51 +1061,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731791919.338457</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731791921.5832841</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731791919.338457.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731791921.5832841.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6424</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6458</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>34</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -1043,51 +1119,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731791922.8934886</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731791927.2416344</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731791922.8934886.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731791927.2416344.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6433.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6409</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-24.5</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -1095,95 +1177,107 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731791927.9600656</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731791927.9600656.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731791927.9600656.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6432.5</v>
       </c>
-      <c r="J14" t="n">
-        <v>6432.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>6448</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731791930.8992481</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731791932.5598428</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731791930.8992481.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731791932.5598428.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>500.45</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>497.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>2.949999999999989</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -1191,51 +1285,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731791935.452813</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731791938.1475787</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731791935.452813.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731791938.1475787.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>496.6</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>495.4</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-1.200000000000045</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -1243,43 +1343,49 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731791941.5489173</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731791941.5489173.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731791941.5489173.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>495.6</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>495.6</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1287,51 +1393,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731791941.6716702</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731791945.651829</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731791941.6716702.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731791945.651829.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>226.03</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>225.47</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1339,51 +1451,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731791946.4177797</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731791947.4580164</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731791946.4177797.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731791947.4580164.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>226.33</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>226.48</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.1499999999999773</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -1391,51 +1509,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731791947.9268148</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731791950.2219834</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731791947.9268148.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731791950.2219834.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>225.18</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>226.2</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>1.019999999999982</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -1443,95 +1567,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731791951.6322436</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731791951.6322436.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731791951.6322436.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>226.49</v>
       </c>
-      <c r="J21" t="n">
-        <v>226.49</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>226.47</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.02000000000001023</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731791956.8305843</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731791963.1155665</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791956.8305843.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791963.1155665.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1008.4</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1006.2</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-2.199999999999932</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -1539,51 +1675,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731791964.4379313</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731791964.7072911</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791964.4379313.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791964.7072911.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1002</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1005.4</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>3.399999999999977</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -1591,95 +1733,107 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731791966.585803</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731791966.585803.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731791966.585803.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1007.4</v>
       </c>
-      <c r="J24" t="n">
-        <v>1007.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1008</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.6000000000000227</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731791967.5580356</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731791971.5289795</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/CNY1731791967.5580356.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/CNY1731791971.5289795.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>11.836</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>11.86</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.02399999999999913</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1687,51 +1841,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731791971.7669687</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731791976.9049795</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/CNY1731791971.7669687.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/CNY1731791976.9049795.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>11.869</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>11.913</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.04400000000000048</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -1739,51 +1899,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731791978.1855001</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731791979.7254677</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731791978.1855001.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731791979.7254677.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>11.911</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>11.917</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.006000000000000227</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1791,51 +1957,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731791980.7722008</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731791982.6726446</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731791980.7722008.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731791982.6726446.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>125.16</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>124.72</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1843,51 +2015,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731791986.3676975</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731791986.443013</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731791986.3676975.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731791986.443013.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>125.38</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>124.98</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.3999999999999915</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1895,51 +2073,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731791988.039737</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731791989.4269094</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731791988.039737.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731791989.4269094.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>124.62</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>125</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1947,51 +2131,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731791989.5373013</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731791991.481445</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731791989.5373013.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731791991.481445.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>125.3</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>124.92</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1999,51 +2189,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731791993.6176176</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731791995.4032323</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731791993.6176176.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731791995.4032323.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>161.86</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>160.4</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>1.460000000000008</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.8999999999999999</v>
       </c>
     </row>
@@ -2051,51 +2247,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731791995.5034049</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731791998.731387</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731791995.5034049.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731791998.731387.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>158.84</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>160.34</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>1.5</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.9400000000000001</v>
       </c>
     </row>
@@ -2103,51 +2305,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731791999.9097931</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731792001.9641743</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731791999.9097931.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792001.9641743.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>158.96</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>159.48</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.5199999999999818</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -2155,95 +2363,107 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731792004.1850176</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731792004.1850176.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731792004.1850176.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>159.66</v>
       </c>
-      <c r="J35" t="n">
-        <v>159.66</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>160.26</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.5999999999999943</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731792006.6099458</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731792006.8855243</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792006.6099458.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792006.8855243.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>49.14</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>48.915</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.2250000000000014</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -2251,51 +2471,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731792007.1816554</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731792007.6538117</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792007.1816554.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792007.6538117.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>49.12</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>48.92</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1999999999999957</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -2303,51 +2529,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731792008.5480273</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731792010.2757156</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792008.5480273.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792010.2757156.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>48.77</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>48.935</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.1649999999999991</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2355,51 +2587,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731792011.9081352</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731792013.3918788</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792011.9081352.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792013.3918788.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>49.115</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>48.86</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.2550000000000026</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -2407,51 +2645,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731792013.7635467</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731792015.9033363</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792013.7635467.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792015.9033363.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>48.77</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>48.92</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.1499999999999986</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2459,95 +2703,107 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731792020.046817</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731792020.046817.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731792020.046817.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>49.09</v>
       </c>
-      <c r="J41" t="n">
-        <v>49.09</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>49.105</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.01499999999999346</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731792020.7764263</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731792021.9411564</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792020.7764263.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792021.9411564.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1392.6</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1387.4</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>5.199999999999818</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -2555,51 +2811,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731792024.043232</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731792030.6826856</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792024.043232.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792030.6826856.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1383.8</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1367.6</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-16.20000000000005</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-1.17</v>
       </c>
     </row>
@@ -2607,95 +2869,107 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731792030.6966484</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731792030.6966484.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731792030.6966484.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1367.6</v>
       </c>
-      <c r="J44" t="n">
-        <v>1367.6</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1370.2</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-2.600000000000136</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731792033.4229748</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731792033.7724602</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792033.4229748.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792033.7724602.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>60.12</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>59.79</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.3299999999999983</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -2703,51 +2977,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731792036.6410844</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731792037.25877</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792036.6410844.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792037.25877.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>59.65</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>59.86</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.2100000000000009</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -2755,51 +3035,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731792037.973765</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731792040.427849</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792037.973765.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792040.427849.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>59.55</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>59.55</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2807,95 +3093,107 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731792041.4900641</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731792041.4900641.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731792041.4900641.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>59.74</v>
       </c>
-      <c r="J48" t="n">
-        <v>59.74</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>60.26</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.519999999999996</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.8699999999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731792043.903524</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731792046.9509442</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731792043.903524.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731792046.9509442.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>96.90000000000001</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>96.22</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.6800000000000068</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -2903,51 +3201,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731792050.1404462</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731792052.9158006</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731792050.1404462.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731792052.9158006.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>96.22</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>96.26000000000001</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.04000000000000625</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2955,51 +3259,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731792057.2084568</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731792059.9891236</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792057.2084568.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792059.9891236.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>56.33</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>56.01</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.3200000000000003</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -3007,51 +3317,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731792062.5277245</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731792065.6564038</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792062.5277245.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792065.6564038.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>56</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>55.72</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.2800000000000011</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -3059,95 +3375,107 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731792065.9212403</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731792065.9212403.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731792065.9212403.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>55.32</v>
       </c>
-      <c r="J53" t="n">
-        <v>55.32</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>55.45</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.1300000000000026</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731792070.484159</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731792074.4571073</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792070.484159.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792074.4571073.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>144.2</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>143.72</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.4799999999999898</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -3155,51 +3483,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731792075.8810253</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731792078.633639</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792075.8810253.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792078.633639.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>143.48</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>143.48</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3207,95 +3541,107 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731792079.119755</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731792079.119755.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731792079.119755.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>143.88</v>
       </c>
-      <c r="J56" t="n">
-        <v>143.88</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>144.04</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.1599999999999966</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731792082.933098</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731792086.0326097</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731792082.933098.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731792086.0326097.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>20.026</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>19.914</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.1119999999999983</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -3303,51 +3649,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731792086.8840425</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731792091.6665256</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731792086.8840425.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731792091.6665256.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>19.9</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>19.815</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.0849999999999973</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -3355,51 +3707,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731792091.7323225</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731792092.8392534</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731792091.7323225.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731792092.8392534.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>19.932</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>19.8</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.1319999999999979</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -3407,51 +3765,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731792093.3387008</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731792094.467088</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731792093.3387008.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731792094.467088.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>19.915</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>19.867</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.04799999999999827</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3459,51 +3823,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731792096.2120373</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731792100.3184838</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731792096.2120373.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731792100.3184838.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>667</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>668.15</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-1.149999999999977</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -3511,51 +3881,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731792101.8313549</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731792104.8869128</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731792101.8313549.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731792104.8869128.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>667.5</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>664.85</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-2.649999999999977</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -3563,95 +3939,107 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731792105.139364</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731792105.139364.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731792105.139364.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>667.85</v>
       </c>
-      <c r="J63" t="n">
-        <v>667.85</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>670.5</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-2.649999999999977</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731792109.447561</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731792111.5922804</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731792109.447561.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731792111.5922804.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>154.77</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>153.39</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>1.380000000000024</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.89</v>
       </c>
     </row>
@@ -3659,51 +4047,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731792113.2474513</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731792119.991988</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731792113.2474513.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731792119.991988.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>151.75</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>149.48</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-2.27000000000001</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-1.5</v>
       </c>
     </row>
@@ -3711,51 +4105,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731792123.2153428</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731792124.431558</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792123.2153428.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792124.431558.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>0.09652000000000001</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>0.09576000000000001</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.0007599999999999968</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.79</v>
       </c>
     </row>
@@ -3763,51 +4163,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731792128.3972855</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731792131.706559</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792128.3972855.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792131.706559.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>0.09572000000000001</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>0.09542</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.0003000000000000086</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -3815,95 +4221,107 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731792133.3610597</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731792133.3610597.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731792133.3610597.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>0.09544000000000001</v>
       </c>
-      <c r="J68" t="n">
-        <v>0.09544000000000001</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>0.09556000000000001</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-0.0001199999999999951</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731792136.057981</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731792138.1586044</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792136.057981.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792138.1586044.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>2927</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>2907.85</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>19.15000000000009</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -3911,51 +4329,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731792141.5092149</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731792144.8471112</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792141.5092149.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792144.8471112.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>2908.1</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>2903.75</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-4.349999999999909</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -3963,51 +4387,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731792146.2487907</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731792148.4077988</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792146.2487907.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792148.4077988.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>2905.85</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>2903.45</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>2.400000000000091</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -4015,44 +4445,50 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731792149.1068149</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731792149.1068149.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731792149.1068149.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>2909</v>
       </c>
-      <c r="J72" t="n">
-        <v>2909</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>2909.55</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-0.5500000000001819</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.02</v>
       </c>
     </row>
   </sheetData>
@@ -4113,16 +4549,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9949999999999974</v>
+        <v>0.980000000000004</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1658333333333329</v>
+        <v>0.163333333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="F2" t="n">
         <v>0.34</v>
@@ -4135,19 +4571,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.240000000000066</v>
+        <v>1.170000000000073</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2480000000000132</v>
+        <v>0.2340000000000146</v>
       </c>
       <c r="E3" t="n">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F3" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
@@ -4179,19 +4615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45</v>
+        <v>29.5</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>11.25</v>
+        <v>7.375</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7</v>
+        <v>0.46</v>
       </c>
       <c r="F5" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -4201,19 +4637,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.47999999999999</v>
+        <v>2.879999999999995</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8699999999999974</v>
+        <v>0.7199999999999989</v>
       </c>
       <c r="E6" t="n">
-        <v>2.17</v>
+        <v>1.79</v>
       </c>
       <c r="F6" t="n">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7">
@@ -4223,19 +4659,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.20000000000027</v>
+        <v>16.65000000000009</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>4.300000000000068</v>
+        <v>4.162500000000023</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="8">
@@ -4245,19 +4681,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5399999999999991</v>
+        <v>0.02000000000000313</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1349999999999998</v>
+        <v>0.005000000000000782</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="F8" t="n">
-        <v>0.22</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9">
@@ -4267,16 +4703,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.430000000000007</v>
+        <v>1.450000000000017</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3575000000000017</v>
+        <v>0.3625000000000043</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="F9" t="n">
         <v>0.16</v>
@@ -4311,19 +4747,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0004599999999999882</v>
+        <v>0.0003399999999999931</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0001533333333333294</v>
+        <v>0.000113333333333331</v>
       </c>
       <c r="E11" t="n">
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
       <c r="F11" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12">
@@ -4355,19 +4791,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-11.00000000000023</v>
+        <v>-13.60000000000036</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.666666666666742</v>
+        <v>-4.533333333333455</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.99</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.27</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="14">
@@ -4377,19 +4813,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.200000000000045</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4000000000000152</v>
+        <v>0.2000000000000076</v>
       </c>
       <c r="E14" t="n">
-        <v>0.12</v>
+        <v>0.05999999999999997</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="15">
@@ -4421,19 +4857,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1699999999999591</v>
+        <v>-0.1400000000000432</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05666666666665302</v>
+        <v>-0.04666666666668107</v>
       </c>
       <c r="E16" t="n">
-        <v>0.06000000000000003</v>
+        <v>-0.04999999999999998</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="17">
@@ -4443,19 +4879,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03999999999999915</v>
+        <v>0.1700000000000017</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01333333333333305</v>
+        <v>0.05666666666666723</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.3</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18">
@@ -4465,19 +4901,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.799999999999955</v>
+        <v>-6.449999999999932</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.266666666666652</v>
+        <v>-2.149999999999977</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.5700000000000001</v>
+        <v>-0.97</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.19</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="19">
@@ -4487,19 +4923,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4799999999999898</v>
+        <v>0.3199999999999932</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1599999999999966</v>
+        <v>0.1066666666666644</v>
       </c>
       <c r="E19" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="F19" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="20">
